--- a/docs/상장법인목록.xlsx
+++ b/docs/상장법인목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bluesquanium\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d0d634b4e575ea7/바탕 화면/git/GoldenDuck/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F6F967-D92C-436D-B695-5853B11AFE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F0F6F967-D92C-436D-B695-5853B11AFE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9235401-3E7F-43B4-92CF-D0696663A5B0}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1560" windowWidth="28755" windowHeight="7875"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상장법인목록" sheetId="1" r:id="rId1"/>
@@ -34492,7 +34492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -35482,11 +35482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
